--- a/documents/final_templates/template_indicators.xlsx
+++ b/documents/final_templates/template_indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tequilamambo/Documents/GitHub/ppi_app/documents/final_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A71CC5-8D7C-0C4A-A0D9-AB7171B47EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB08E97-4D90-B742-A62F-B612DC4171D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="3280" windowWidth="30820" windowHeight="21220" activeTab="2" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,30 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="186">
-  <si>
-    <t>I0</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>qm</t>
-  </si>
-  <si>
-    <t>rl</t>
-  </si>
-  <si>
-    <t>Imax</t>
-  </si>
-  <si>
-    <t>Imin</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
   <si>
     <t>Will do callibration</t>
   </si>
@@ -190,12 +168,6 @@
     <t>Goal to be achieved for each indicator. It should be in the same units as the corresponding indicator.</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>Hexagesimal color code for each indicator. Will be used in the visualizations.</t>
   </si>
   <si>
@@ -208,9 +180,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Full name of the indicator. It will appear only in the interactive visualizations.</t>
   </si>
   <si>
@@ -683,13 +652,46 @@
   </si>
   <si>
     <t>Custom label for each indicator. Will be used in the visualizations. Should not be longer than 12 characters. If not provided, the app assigns a number from 1 to N.</t>
+  </si>
+  <si>
+    <t>instrumental</t>
+  </si>
+  <si>
+    <t>initial_value</t>
+  </si>
+  <si>
+    <t>final_value</t>
+  </si>
+  <si>
+    <t>rule_of_law</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>min_value</t>
+  </si>
+  <si>
+    <t>max_value</t>
+  </si>
+  <si>
+    <t>indicator_label</t>
+  </si>
+  <si>
+    <t>indicator_name</t>
+  </si>
+  <si>
+    <t>indicator_color</t>
+  </si>
+  <si>
+    <t>indicator_goal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -727,14 +729,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -762,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,7 +778,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,59 +1096,74 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="10" t="s">
+    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1167,13 +1175,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15FDC6-1029-1846-9DAD-BEAFFE44F44D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1184,274 +1190,274 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="88" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="88" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,69 +1476,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138D762-FAC7-6E4D-9B26-DAC01A1E917D}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="122.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1573,13 +1577,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1620,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1667,13 +1671,13 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1714,13 +1718,13 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1761,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1808,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1855,13 +1859,13 @@
         <v>0.98</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1902,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1949,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1996,13 +2000,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2043,13 +2047,13 @@
         <v>0.98863636363636298</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2090,13 +2094,13 @@
         <v>0.99863999999999997</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2137,13 +2141,13 @@
         <v>0.98196721311475399</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2184,13 +2188,13 @@
         <v>0.775555555555555</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2231,13 +2235,13 @@
         <v>0.76</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2278,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2325,13 +2329,13 @@
         <v>0.95428571428571396</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2372,13 +2376,13 @@
         <v>0.98869565217391298</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2419,13 +2423,13 @@
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2466,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2513,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2560,13 +2564,13 @@
         <v>0.70422535211267601</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2607,13 +2611,13 @@
         <v>0.745714285714285</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2654,13 +2658,13 @@
         <v>0.74074074074074003</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2701,13 +2705,13 @@
         <v>0.94339622641509402</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2748,13 +2752,13 @@
         <v>0.76923076923076905</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2795,13 +2799,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2842,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2889,13 +2893,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2936,13 +2940,13 @@
         <v>1</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2983,13 +2987,13 @@
         <v>1</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -3030,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -3077,13 +3081,13 @@
         <v>1</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -3124,13 +3128,13 @@
         <v>1</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -3171,13 +3175,13 @@
         <v>1</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3218,13 +3222,13 @@
         <v>0.51</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3259,13 +3263,13 @@
         <v>0.75599999999999901</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3300,13 +3304,13 @@
         <v>0.625</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3347,13 +3351,13 @@
         <v>1</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3394,13 +3398,13 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3441,13 +3445,13 @@
         <v>0.39999999999999902</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3488,13 +3492,13 @@
         <v>1</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3535,13 +3539,13 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3582,13 +3586,13 @@
         <v>0.72312500000000002</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3629,13 +3633,13 @@
         <v>0.74</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3676,13 +3680,13 @@
         <v>0.78</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3723,13 +3727,13 @@
         <v>0.90909090909090895</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3764,13 +3768,13 @@
         <v>0.85</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3811,13 +3815,13 @@
         <v>1</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3858,13 +3862,13 @@
         <v>0.94272727272727197</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3905,13 +3909,13 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3952,13 +3956,13 @@
         <v>1</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3999,13 +4003,13 @@
         <v>1</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -4046,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -4093,13 +4097,13 @@
         <v>1</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -4140,13 +4144,13 @@
         <v>1</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -4187,13 +4191,13 @@
         <v>0.99</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -4234,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -4281,13 +4285,13 @@
         <v>1</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -4328,13 +4332,13 @@
         <v>1</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -4375,13 +4379,13 @@
         <v>0.99727272727272698</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -4422,13 +4426,13 @@
         <v>0.99358974358974295</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -4469,13 +4473,13 @@
         <v>0.9</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -4516,13 +4520,13 @@
         <v>0.48275862068965503</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -4563,13 +4567,13 @@
         <v>0.114285714285714</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
